--- a/Assets/RowData/ItemData.xlsx
+++ b/Assets/RowData/ItemData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -54,24 +54,12 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>매우 약한 나무스태프</t>
-  </si>
-  <si>
     <t>Weapon</t>
   </si>
   <si>
-    <t>마력이 매우 미미하게 흐르는 길가다 주운 나무가지</t>
-  </si>
-  <si>
-    <t>허름한 로브</t>
-  </si>
-  <si>
     <t>Armor</t>
   </si>
   <si>
-    <t>매우 허름한 로브</t>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,15 +68,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Wapon/staff_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor/robe_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ItemPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon/staff_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAmount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
+  </si>
+  <si>
+    <t>Consume/Test_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>robe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test heal Item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>robe!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Sttaf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood sttaf!!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,6 +146,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,10 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -366,10 +407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -377,12 +418,12 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -415,21 +456,24 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
         <v>10001001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -458,22 +502,25 @@
       <c r="L2" s="1">
         <v>-5</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>10002001</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -502,11 +549,37 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>70001001</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
